--- a/개발 기획 문서/시스템 기획서/점수 및 노트 판정 시스템.xlsx
+++ b/개발 기획 문서/시스템 기획서/점수 및 노트 판정 시스템.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kohpn\Desktop\개인 활동\진행중인 프로젝트\Penlight Dancing\기획서\개발 기획 문서\시스템 기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E834ACAB-1992-4329-8B01-6BF9AB93CC6C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC5CC9F1-1101-49F6-9088-1B7F848DEF88}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FB8F4B69-3DF4-4248-9590-1EA5A762AB95}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="노트 판정 및 랭크" sheetId="1" r:id="rId1"/>
+    <sheet name="대미지" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="64">
   <si>
     <t>단타 노트</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -234,6 +235,82 @@
   </si>
   <si>
     <t>위의 조건에 모두 부합하지 않고, Miss가 전체 노트의 40% 이상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단타 노트, 베기 노트, 색 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노트 당 처리 실패 시 체력 소모</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>베기 노트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>롱 노트 - 중도 처리 실패</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>롱 스핀 노트 - 중도 처리 실패</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>롱 스핀 노트 - 회전 수 부족</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>색 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스핀 노트 - 회전 수 부족</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>롱 노트 - 시도 X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연속 충돌 시 대미지 증가량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3회 이상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x 1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x 1.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x 2.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bad 판정 시 위 수치의 50%만큼 대미지를 입음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노트 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대미지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -382,7 +459,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -657,13 +734,69 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -679,9 +812,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -766,6 +896,51 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -805,37 +980,25 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1163,301 +1326,438 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB07AD3C-9091-438F-8CF0-ECE2AA553CEE}">
-  <dimension ref="B1:O12"/>
+  <dimension ref="B1:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1.625" customWidth="1"/>
-    <col min="2" max="7" width="17.875" customWidth="1"/>
+    <col min="2" max="2" width="17.875" customWidth="1"/>
+    <col min="3" max="3" width="28.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="17.875" customWidth="1"/>
+    <col min="8" max="8" width="14.875" customWidth="1"/>
     <col min="9" max="9" width="13.75" customWidth="1"/>
-    <col min="10" max="10" width="30.875" customWidth="1"/>
-    <col min="12" max="12" width="9.25" customWidth="1"/>
-    <col min="13" max="13" width="16.375" customWidth="1"/>
-    <col min="14" max="14" width="57.25" customWidth="1"/>
-    <col min="15" max="15" width="66.25" customWidth="1"/>
+    <col min="11" max="11" width="32.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.375" customWidth="1"/>
+    <col min="13" max="13" width="57.25" customWidth="1"/>
+    <col min="14" max="14" width="66.25" customWidth="1"/>
+    <col min="15" max="15" width="63.25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="47" t="s">
+    <row r="1" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="49"/>
-      <c r="I2" s="47" t="s">
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="39"/>
+      <c r="J2" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="49"/>
-      <c r="L2" s="47" t="s">
+      <c r="K2" s="39"/>
+      <c r="M2" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="49"/>
-    </row>
-    <row r="3" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="13"/>
-      <c r="C3" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="11" t="s">
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="35"/>
+    </row>
+    <row r="3" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="12"/>
+      <c r="C3" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="J3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="32" t="s">
+      <c r="K3" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="M3" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="20" t="s">
+      <c r="N3" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="21" t="s">
+      <c r="O3" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="O3" s="21" t="s">
+      <c r="P3" s="20" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="6" t="s">
+    <row r="4" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="11">
         <v>300</v>
       </c>
       <c r="D4" s="2">
         <v>150</v>
       </c>
-      <c r="E4" s="50" t="s">
+      <c r="E4" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="54">
+      <c r="F4" s="41"/>
+      <c r="G4" s="44">
         <v>20</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="J4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="32" t="s">
+      <c r="K4" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="L4" s="15" t="s">
+      <c r="M4" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="22" t="s">
+      <c r="N4" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="O4" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="P4" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="2:15" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="7" t="s">
+    <row r="5" spans="2:16" ht="182.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="13">
         <v>200</v>
       </c>
       <c r="D5" s="1">
         <v>100</v>
       </c>
-      <c r="E5" s="50"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="54"/>
-      <c r="I5" s="8" t="s">
+      <c r="E5" s="40"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="44"/>
+      <c r="J5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="32" t="s">
+      <c r="K5" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="L5" s="15" t="s">
+      <c r="M5" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="23" t="s">
+      <c r="N5" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="N5" s="29" t="s">
+      <c r="O5" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="O5" s="1"/>
-    </row>
-    <row r="6" spans="2:15" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="8" t="s">
+      <c r="P5" s="1"/>
+    </row>
+    <row r="6" spans="2:16" ht="83.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="13">
         <v>100</v>
       </c>
       <c r="D6" s="1">
         <v>75</v>
       </c>
-      <c r="E6" s="50"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="54"/>
-      <c r="I6" s="9" t="s">
+      <c r="E6" s="40"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="44"/>
+      <c r="J6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="33" t="s">
+      <c r="K6" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="L6" s="16" t="s">
+      <c r="M6" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="M6" s="24" t="s">
+      <c r="N6" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="N6" s="25" t="s">
+      <c r="O6" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="O6" s="1"/>
-    </row>
-    <row r="7" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="9" t="s">
+      <c r="P6" s="1"/>
+    </row>
+    <row r="7" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="13">
         <v>50</v>
       </c>
       <c r="D7" s="1">
         <v>30</v>
       </c>
-      <c r="E7" s="52"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="55"/>
-      <c r="I7" s="31" t="s">
+      <c r="E7" s="42"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="45"/>
+      <c r="J7" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="K7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="17" t="s">
+      <c r="M7" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="M7" s="24" t="s">
+      <c r="N7" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="N7" s="25" t="s">
+      <c r="O7" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="O7" s="1"/>
-    </row>
-    <row r="8" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="10" t="s">
+      <c r="P7" s="1"/>
+    </row>
+    <row r="8" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="56">
+      <c r="C8" s="46">
         <v>0</v>
       </c>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="57"/>
-      <c r="I8" s="40" t="s">
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="47"/>
+      <c r="J8" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="J8" s="41"/>
-      <c r="L8" s="18" t="s">
+      <c r="K8" s="55"/>
+      <c r="M8" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="M8" s="24" t="s">
+      <c r="N8" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="N8" s="25" t="s">
+      <c r="O8" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="O8" s="1"/>
-    </row>
-    <row r="9" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I9" s="42"/>
-      <c r="J9" s="43"/>
-      <c r="L9" s="19" t="s">
+      <c r="P8" s="1"/>
+    </row>
+    <row r="9" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J9" s="56"/>
+      <c r="K9" s="57"/>
+      <c r="M9" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="M9" s="24" t="s">
+      <c r="N9" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="N9" s="25" t="s">
+      <c r="O9" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="O9" s="1"/>
-    </row>
-    <row r="10" spans="2:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="47" t="s">
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="2:16" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="48"/>
-      <c r="D10" s="37" t="s">
+      <c r="C10" s="38"/>
+      <c r="D10" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="45"/>
-      <c r="L10" s="26" t="s">
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="29"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="59"/>
+      <c r="M10" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="M10" s="27" t="s">
+      <c r="N10" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="N10" s="4" t="s">
+      <c r="O10" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="O10" s="28"/>
-    </row>
-    <row r="11" spans="2:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L11" s="34" t="s">
+      <c r="P10" s="27"/>
+    </row>
+    <row r="11" spans="2:16" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M11" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="M11" s="35"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="36"/>
-    </row>
-    <row r="12" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L12" s="46" t="s">
+      <c r="N11" s="49"/>
+      <c r="O11" s="49"/>
+      <c r="P11" s="50"/>
+    </row>
+    <row r="12" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M12" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="M12" s="38"/>
-      <c r="N12" s="38"/>
-      <c r="O12" s="39"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="61"/>
+      <c r="P12" s="62"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="L2:O2"/>
+  <mergeCells count="10">
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="J8:K10"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="M12:P12"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="E4:F7"/>
     <mergeCell ref="G4:G7"/>
     <mergeCell ref="C8:G8"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="I8:J10"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="J2:K2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29C9690E-A218-4F02-9356-01604B157DDA}">
+  <dimension ref="B1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="1.625" customWidth="1"/>
+    <col min="2" max="2" width="32.5" customWidth="1"/>
+    <col min="3" max="3" width="12.375" customWidth="1"/>
+    <col min="6" max="6" width="16.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="65" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="66"/>
+      <c r="E2" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="64"/>
+    </row>
+    <row r="3" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="67" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="1">
+        <v>6</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="53"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/개발 기획 문서/시스템 기획서/점수 및 노트 판정 시스템.xlsx
+++ b/개발 기획 문서/시스템 기획서/점수 및 노트 판정 시스템.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kohpn\Desktop\개인 활동\진행중인 프로젝트\Penlight Dancing\기획서\개발 기획 문서\시스템 기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC5CC9F1-1101-49F6-9088-1B7F848DEF88}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{350C2F3C-8DEF-49C0-AAE4-A35BEE2FC1EC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FB8F4B69-3DF4-4248-9590-1EA5A762AB95}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{FB8F4B69-3DF4-4248-9590-1EA5A762AB95}"/>
   </bookViews>
   <sheets>
     <sheet name="노트 판정 및 랭크" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="65">
   <si>
     <t>단타 노트</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -311,6 +311,10 @@
   </si>
   <si>
     <t>대미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 체력</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -908,12 +912,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -941,64 +993,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1328,7 +1332,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB07AD3C-9091-438F-8CF0-ECE2AA553CEE}">
   <dimension ref="B1:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -1350,18 +1354,18 @@
   <sheetData>
     <row r="1" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="39"/>
-      <c r="J2" s="37" t="s">
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="55"/>
+      <c r="J2" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="39"/>
+      <c r="K2" s="55"/>
       <c r="M2" s="33" t="s">
         <v>15</v>
       </c>
@@ -1415,11 +1419,11 @@
       <c r="D4" s="2">
         <v>150</v>
       </c>
-      <c r="E4" s="40" t="s">
+      <c r="E4" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="41"/>
-      <c r="G4" s="44">
+      <c r="F4" s="57"/>
+      <c r="G4" s="60">
         <v>20</v>
       </c>
       <c r="J4" s="6" t="s">
@@ -1441,7 +1445,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="2:16" ht="182.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:16" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="6" t="s">
         <v>4</v>
       </c>
@@ -1451,9 +1455,9 @@
       <c r="D5" s="1">
         <v>100</v>
       </c>
-      <c r="E5" s="40"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="44"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="60"/>
       <c r="J5" s="7" t="s">
         <v>5</v>
       </c>
@@ -1471,7 +1475,7 @@
       </c>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="2:16" ht="83.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:16" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="7" t="s">
         <v>5</v>
       </c>
@@ -1481,9 +1485,9 @@
       <c r="D6" s="1">
         <v>75</v>
       </c>
-      <c r="E6" s="40"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="44"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="60"/>
       <c r="J6" s="8" t="s">
         <v>7</v>
       </c>
@@ -1511,9 +1515,9 @@
       <c r="D7" s="1">
         <v>30</v>
       </c>
-      <c r="E7" s="42"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="45"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="61"/>
       <c r="J7" s="30" t="s">
         <v>6</v>
       </c>
@@ -1535,17 +1539,17 @@
       <c r="B8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="46">
+      <c r="C8" s="62">
         <v>0</v>
       </c>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="47"/>
-      <c r="J8" s="54" t="s">
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="63"/>
+      <c r="J8" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="K8" s="55"/>
+      <c r="K8" s="42"/>
       <c r="M8" s="17" t="s">
         <v>20</v>
       </c>
@@ -1558,8 +1562,8 @@
       <c r="P8" s="1"/>
     </row>
     <row r="9" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J9" s="56"/>
-      <c r="K9" s="57"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="44"/>
       <c r="M9" s="18" t="s">
         <v>21</v>
       </c>
@@ -1572,19 +1576,19 @@
       <c r="P9" s="1"/>
     </row>
     <row r="10" spans="2:16" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="51" t="s">
+      <c r="C10" s="48"/>
+      <c r="D10" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="53"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="40"/>
       <c r="H10" s="29"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="59"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="46"/>
       <c r="M10" s="25" t="s">
         <v>22</v>
       </c>
@@ -1597,33 +1601,33 @@
       <c r="P10" s="27"/>
     </row>
     <row r="11" spans="2:16" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="M11" s="48" t="s">
+      <c r="M11" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="N11" s="49"/>
-      <c r="O11" s="49"/>
-      <c r="P11" s="50"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="50"/>
+      <c r="P11" s="51"/>
     </row>
     <row r="12" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="M12" s="60" t="s">
+      <c r="M12" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="N12" s="61"/>
-      <c r="O12" s="61"/>
-      <c r="P12" s="62"/>
+      <c r="N12" s="53"/>
+      <c r="O12" s="53"/>
+      <c r="P12" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="E4:F7"/>
+    <mergeCell ref="G4:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="J2:K2"/>
     <mergeCell ref="D10:G10"/>
     <mergeCell ref="J8:K10"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="M11:P11"/>
     <mergeCell ref="M12:P12"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="E4:F7"/>
-    <mergeCell ref="G4:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1632,10 +1636,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29C9690E-A218-4F02-9356-01604B157DDA}">
-  <dimension ref="B1:F12"/>
+  <dimension ref="B1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1644,24 +1648,28 @@
     <col min="2" max="2" width="32.5" customWidth="1"/>
     <col min="3" max="3" width="12.375" customWidth="1"/>
     <col min="6" max="6" width="16.5" customWidth="1"/>
+    <col min="8" max="8" width="13.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="65" t="s">
+    <row r="1" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="66"/>
-      <c r="E2" s="63" t="s">
+      <c r="C2" s="65"/>
+      <c r="E2" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="F2" s="64"/>
-    </row>
-    <row r="3" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F2" s="67"/>
+      <c r="H2" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="37" t="s">
         <v>63</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -1670,8 +1678,11 @@
       <c r="F3" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="H3" s="2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1685,7 +1696,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>47</v>
       </c>
@@ -1699,7 +1710,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>53</v>
       </c>
@@ -1707,7 +1718,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>48</v>
       </c>
@@ -1715,7 +1726,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>52</v>
       </c>
@@ -1723,7 +1734,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>49</v>
       </c>
@@ -1731,7 +1742,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>50</v>
       </c>
@@ -1739,7 +1750,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="27" t="s">
         <v>51</v>
       </c>
@@ -1747,11 +1758,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="51" t="s">
+    <row r="12" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="53"/>
+      <c r="C12" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="3">
